--- a/survey/feedback1.xlsx
+++ b/survey/feedback1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhongdai/Desktop/groupResit/web-softwaretools-plain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhongdai/Desktop/groupResit/web-softwaretools-plain/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F17587-A8D8-1649-9667-CD8DEB7F61BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C96AA0C-873D-EB4C-9BF0-2C0084C76010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>电子邮件</t>
-  </si>
-  <si>
     <t>Do you prefer to buy pets online instead of in store?</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>Is it important to you to show more details about pets?</t>
   </si>
   <si>
-    <t>If you have any suggestions on layout, please make them below</t>
-  </si>
-  <si>
-    <t>If you need other features of the site, please make them below</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>Cartoon</t>
   </si>
   <si>
-    <t>More clear, the homepage can be more better.</t>
-  </si>
-  <si>
     <t>anonymous</t>
   </si>
   <si>
@@ -78,46 +66,26 @@
     <t>No</t>
   </si>
   <si>
-    <t>It's a little confused for add pet in tag</t>
-  </si>
-  <si>
-    <t>I'd like to see the state of the pet, available or sold</t>
-  </si>
-  <si>
     <t>Minimalism</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe I don't need the function of the tag of add pet </t>
-  </si>
-  <si>
-    <t>I'd like to see more pictures about pets, even gifs</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Mordern</t>
   </si>
   <si>
-    <t>the customer service</t>
-  </si>
-  <si>
     <t>The efficiency of site</t>
   </si>
   <si>
-    <t>More colorful</t>
-  </si>
-  <si>
     <t>The color of site</t>
   </si>
   <si>
-    <t>Can be more funny</t>
-  </si>
-  <si>
     <t>Science and technology</t>
   </si>
   <si>
     <t>anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,13 +136,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -213,19 +175,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="电子邮件" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Do you prefer to buy pets online instead of in store?" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="What aspect of the site appeals to you most?" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which style do you think is more suitable for our website?" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Would you like to have your own account in our site?" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Do you decide on getting a specific pet before going to pet store?" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Is it important to you to show more details about pets?" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="If you have any suggestions on layout, please make them below" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="If you need other features of the site, please make them below" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="email" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Do you prefer to buy pets online instead of in store?" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="What aspect of the site appeals to you most?" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which style do you think is more suitable for our website?" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Would you like to have your own account in our site?" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Do you decide on getting a specific pet before going to pet store?" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Is it important to you to show more details about pets?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,516 +488,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
